--- a/data/georgia_census/racha/lentexi/healthcare_staff.xlsx
+++ b/data/georgia_census/racha/lentexi/healthcare_staff.xlsx
@@ -1358,13 +1358,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{14E12FE2-B6E9-4D3C-A26C-0BBA993FB859}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C58E8742-A58D-40F7-A5C8-53FB5DFE4C8E}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3225B6E3-2952-40FB-A1E2-7E6BB0A3C01D}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1BEBA076-4554-46E8-B9CD-5921BECCDDB7}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4A51CED-F970-44FD-B1A8-2EBB1C9037D6}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{78D7E598-292D-4BE7-82DE-D0A6EC2AF548}"/>
 </file>